--- a/exel/Problem_2_coffee_blending.xlsx
+++ b/exel/Problem_2_coffee_blending.xlsx
@@ -9,42 +9,44 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="2505" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Answer Report 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sensitivity Report 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$3:$C$3</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$D$7:$D$9</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$E$7:$E$9</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet1!$B$3:$C$3</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Sheet1!$D$7:$D$9</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet1!$E$3</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Sheet1!$E$7:$E$9</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>Profit</t>
   </si>
@@ -86,16 +88,197 @@
   </si>
   <si>
     <t>Demand</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Answer Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [Problem_2_coffee_blending.xlsx]Sheet1</t>
+  </si>
+  <si>
+    <t>Report Created: 10/25/2021 3:50:08 AM</t>
+  </si>
+  <si>
+    <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
+  </si>
+  <si>
+    <t>Solver Engine</t>
+  </si>
+  <si>
+    <t>Engine: Simplex LP</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.015 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 3 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>Solver Options</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
+  </si>
+  <si>
+    <t>Objective Cell (Max)</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Cell Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>$E$3</t>
+  </si>
+  <si>
+    <t>Order Profit</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>Order Super</t>
+  </si>
+  <si>
+    <t>Contin</t>
+  </si>
+  <si>
+    <t>$C$3</t>
+  </si>
+  <si>
+    <t>Order Delux</t>
+  </si>
+  <si>
+    <t>$D$7</t>
+  </si>
+  <si>
+    <t>Brazilian Used</t>
+  </si>
+  <si>
+    <t>$D$7&lt;=$E$7</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>$D$8</t>
+  </si>
+  <si>
+    <t>Cuban Used</t>
+  </si>
+  <si>
+    <t>$D$8&lt;=$E$8</t>
+  </si>
+  <si>
+    <t>$D$9</t>
+  </si>
+  <si>
+    <t>Demand Used</t>
+  </si>
+  <si>
+    <t>$D$9&lt;=$E$9</t>
+  </si>
+  <si>
+    <t>Not Binding</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -117,14 +300,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +651,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>200</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>80</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="8">
+        <v>120</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="8">
+        <v>160</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="7">
+        <v>80</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="4">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6">
+        <v>200</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6">
+        <v>60</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6">
+        <v>120</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6">
+        <v>120</v>
+      </c>
+      <c r="G15" s="6">
+        <v>40</v>
+      </c>
+      <c r="H15" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6">
+        <v>160</v>
+      </c>
+      <c r="E16" s="6">
+        <v>60</v>
+      </c>
+      <c r="F16" s="6">
+        <v>160</v>
+      </c>
+      <c r="G16" s="6">
+        <v>35</v>
+      </c>
+      <c r="H16" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4">
+        <v>80</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>150</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,14 +1192,14 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <f>B2*B3 + C2*C3</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -473,7 +1222,7 @@
       </c>
       <c r="D7">
         <f>B7*$B$3 +C7*$C$3</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -491,7 +1240,7 @@
       </c>
       <c r="D8">
         <f>B8*$B$3 +C8*$C$3</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E8">
         <v>160</v>
@@ -509,7 +1258,7 @@
       </c>
       <c r="D9">
         <f>B9*$B$3 +C9*$C$3</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>150</v>
